--- a/FYP_Gantt.xlsx
+++ b/FYP_Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddbd6e683667f873/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="8_{A0FB8E34-D5EB-4889-BEE5-3E939A35E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6446EA73-D041-4F69-B106-AB03C87AC20D}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{A0FB8E34-D5EB-4889-BEE5-3E939A35E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B958D3B1-AA0A-4D63-8F95-7C6A8857769D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B05C84-0E34-456B-9D10-F59BCC43D45F}"/>
   </bookViews>
@@ -117,13 +117,13 @@
     <t>Implementation of RNN-LSTM</t>
   </si>
   <si>
-    <t>Implementation of A+K filter</t>
-  </si>
-  <si>
-    <t>Filters + ML research</t>
-  </si>
-  <si>
     <t>Implementation of chosen methods</t>
+  </si>
+  <si>
+    <t>Denoising + ML research</t>
+  </si>
+  <si>
+    <t>Implementation of CNN</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,55 +727,62 @@
     <xf numFmtId="14" fontId="4" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1113,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A6:AN31"/>
+  <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ27" sqref="AQ27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,94 +1129,94 @@
   <sheetData>
     <row r="6" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73" t="s">
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
     </row>
     <row r="8" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
     </row>
     <row r="9" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="65" t="s">
@@ -1370,8 +1377,8 @@
         <v>4</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="84"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1416,10 +1423,10 @@
       <c r="C11" s="5">
         <v>44494</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="75">
         <v>44570</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1464,7 +1471,7 @@
       <c r="C12" s="5">
         <v>44529</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="75">
         <v>44570</v>
       </c>
       <c r="E12" s="45"/>
@@ -1512,10 +1519,10 @@
       <c r="C13" s="5">
         <v>44494</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="75">
         <v>44570</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1553,13 +1560,13 @@
       <c r="AN13" s="28"/>
     </row>
     <row r="14" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>44536</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="75">
         <v>44570</v>
       </c>
       <c r="E14" s="45"/>
@@ -1606,7 +1613,7 @@
       <c r="C15" s="5">
         <v>44547</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="75">
         <v>44571</v>
       </c>
       <c r="E15" s="45"/>
@@ -1620,7 +1627,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="85"/>
+      <c r="P15" s="83"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
@@ -1647,11 +1654,11 @@
       <c r="AN15" s="28"/>
     </row>
     <row r="16" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="75" t="s">
-        <v>28</v>
+      <c r="B16" s="73" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="78"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="46"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1691,12 +1698,12 @@
     </row>
     <row r="17" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="38" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8">
         <v>44571</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="77">
         <v>44593</v>
       </c>
       <c r="E17" s="47"/>
@@ -1710,7 +1717,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="86"/>
+      <c r="P17" s="84"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
@@ -1738,13 +1745,13 @@
     </row>
     <row r="18" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="38" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C18" s="8">
         <f>D17</f>
         <v>44593</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="77">
         <f>C18+14</f>
         <v>44607</v>
       </c>
@@ -1793,7 +1800,7 @@
         <f>D18</f>
         <v>44607</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="77">
         <f>C19+14</f>
         <v>44621</v>
       </c>
@@ -1841,7 +1848,7 @@
       <c r="C20" s="8">
         <v>44614</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="77">
         <f>C20+14</f>
         <v>44628</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="80"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="48"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -1932,7 +1939,7 @@
       <c r="C22" s="10">
         <v>44607</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="79">
         <f>C22+28</f>
         <v>44635</v>
       </c>
@@ -1981,7 +1988,7 @@
         <f>D22</f>
         <v>44635</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="79">
         <f>C23+14</f>
         <v>44649</v>
       </c>
@@ -2029,7 +2036,7 @@
       <c r="C24" s="10">
         <v>44649</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="79">
         <f>C24+14</f>
         <v>44663</v>
       </c>
@@ -2077,7 +2084,7 @@
       <c r="C25" s="10">
         <v>44656</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="79">
         <v>44681</v>
       </c>
       <c r="E25" s="49"/>
@@ -2106,7 +2113,7 @@
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
-      <c r="AE25" s="87"/>
+      <c r="AE25" s="85"/>
       <c r="AF25" s="29"/>
       <c r="AG25" s="29"/>
       <c r="AH25" s="29"/>
@@ -2122,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="82"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="50"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -2167,7 +2174,7 @@
       <c r="C27" s="12">
         <v>44543</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="81">
         <v>44550</v>
       </c>
       <c r="E27" s="52"/>
@@ -2214,7 +2221,7 @@
       <c r="C28" s="12">
         <v>44550</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="81">
         <v>44592</v>
       </c>
       <c r="E28" s="52"/>
@@ -2261,7 +2268,7 @@
       <c r="C29" s="12">
         <v>44599</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="81">
         <v>44665</v>
       </c>
       <c r="E29" s="52"/>
@@ -2308,7 +2315,7 @@
       <c r="C30" s="12">
         <v>44665</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="81">
         <v>44727</v>
       </c>
       <c r="E30" s="52"/>
@@ -2393,7 +2400,44 @@
       <c r="AK31" s="32"/>
       <c r="AL31" s="15"/>
       <c r="AM31" s="15"/>
-      <c r="AN31" s="88"/>
+      <c r="AN31" s="86"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="87"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="87"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="87"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="87"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="87"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/FYP_Gantt.xlsx
+++ b/FYP_Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddbd6e683667f873/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddbd6e683667f873/Documents/GitHub/FinalYearProject---BP-from-ECG-PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{A0FB8E34-D5EB-4889-BEE5-3E939A35E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B958D3B1-AA0A-4D63-8F95-7C6A8857769D}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{A0FB8E34-D5EB-4889-BEE5-3E939A35E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F017DC-D681-45CB-8413-95C5E51542A5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B05C84-0E34-456B-9D10-F59BCC43D45F}"/>
+    <workbookView xWindow="480" yWindow="1428" windowWidth="19368" windowHeight="10080" xr2:uid="{E3B05C84-0E34-456B-9D10-F59BCC43D45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>FYP Title: Extraction of blood pressure from ECG signals</t>
   </si>
   <si>
-    <t>Implementation of ANN</t>
-  </si>
-  <si>
     <t>End-to-end testing</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Implementation of CNN</t>
+  </si>
+  <si>
+    <t>Implementation of CNNs</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1115,8 @@
   </sheetPr>
   <dimension ref="A6:AN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1135,7 @@
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="91"/>
       <c r="G7" s="91"/>
@@ -1148,7 +1148,7 @@
       <c r="N7" s="91"/>
       <c r="O7" s="91"/>
       <c r="P7" s="91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="91"/>
       <c r="R7" s="91"/>
@@ -1166,7 +1166,7 @@
       <c r="AD7" s="91"/>
       <c r="AE7" s="91"/>
       <c r="AF7" s="91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="91"/>
       <c r="AH7" s="91"/>
@@ -1514,7 +1514,7 @@
     <row r="13" spans="1:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <v>44494</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="14" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>44536</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="16" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="76"/>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="17" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="38" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8">
         <v>44571</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="18" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="8">
         <f>D17</f>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="19" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="8">
         <f>D18</f>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="20" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8">
         <v>44614</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="22" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="10">
         <v>44607</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="23" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="10">
         <f>D22</f>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="24" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="10">
         <v>44649</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="25" spans="2:40" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="10">
         <v>44656</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="27" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12">
         <v>44543</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="28" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="12">
         <v>44550</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="29" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="12">
         <v>44599</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="30" spans="2:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="12">
         <v>44665</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="31" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="14">
         <v>44725</v>
